--- a/data/sourcedata/xdf/sub-12/order_matrix_12_A_block4_VR.xlsx
+++ b/data/sourcedata/xdf/sub-12/order_matrix_12_A_block4_VR.xlsx
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -517,7 +517,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_3_text.mp4</t>
+          <t>./instructions_videos/VR/block_3_text.mp4</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -538,7 +538,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+          <t>./instructions_videos/VR/post_stimulus_verbal_report.mp4</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -632,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -672,7 +672,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -691,7 +691,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>./instructions_videos/confidence_verbal_report_text.mp4</t>
+          <t>./instructions_videos/VR/confidence_verbal_report_text.mp4</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -712,7 +712,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -731,7 +731,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>./instructions_videos/mareo.mp4</t>
+          <t>./instructions_videos/VR/mareo.mp4</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -752,7 +752,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -771,7 +771,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_3_text_reminder.mp4</t>
+          <t>./instructions_videos/VR/block_3_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -792,7 +792,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/14.mp4</t>
+          <t>../stimuli/exp_videos/VR/6.mp4</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -846,7 +846,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -865,7 +865,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+          <t>./instructions_videos/VR/post_stimulus_verbal_report.mp4</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -886,7 +886,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -945,7 +945,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>./instructions_videos/confidence_verbal_report_text.mp4</t>
+          <t>./instructions_videos/VR/confidence_verbal_report_text.mp4</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -966,7 +966,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -985,7 +985,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>./instructions_videos/mareo.mp4</t>
+          <t>./instructions_videos/VR/mareo.mp4</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1006,7 +1006,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,7 +1025,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_3_text_reminder.mp4</t>
+          <t>./instructions_videos/VR/block_3_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1046,7 +1046,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/6.mp4</t>
+          <t>../stimuli/exp_videos/VR/14.mp4</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1100,7 +1100,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,7 +1119,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+          <t>./instructions_videos/VR/post_stimulus_verbal_report.mp4</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1140,7 +1140,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1199,7 +1199,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>./instructions_videos/confidence_verbal_report_text.mp4</t>
+          <t>./instructions_videos/VR/confidence_verbal_report_text.mp4</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1220,7 +1220,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1239,7 +1239,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>./instructions_videos/mareo.mp4</t>
+          <t>./instructions_videos/VR/mareo.mp4</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1260,7 +1260,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1279,7 +1279,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>./instructions_videos/luminance_instructions_direct.mp4</t>
+          <t>./instructions_videos/VR/luminance_instructions_direct.mp4</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1365,7 +1365,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>./instructions_videos/confidence_luminance_practice_instructions_text.mp4</t>
+          <t>./instructions_videos/VR/confidence_luminance_practice_instructions_text.mp4</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1384,7 +1384,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1403,7 +1403,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>./instructions_videos/final_relaxation_video_text.mp4</t>
+          <t>./instructions_videos/VR/final_relaxation_video_text.mp4</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1422,7 +1422,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1479,7 +1479,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>./instructions_videos/experiment_end_text.mp4</t>
+          <t>./instructions_videos/VR/experiment_end_text.mp4</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
